--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H2">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J2">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N2">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P2">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q2">
-        <v>1496.611701938607</v>
+        <v>29364.5011550381</v>
       </c>
       <c r="R2">
-        <v>1496.611701938607</v>
+        <v>264280.5103953429</v>
       </c>
       <c r="S2">
-        <v>0.132553851905764</v>
+        <v>0.480814628375602</v>
       </c>
       <c r="T2">
-        <v>0.132553851905764</v>
+        <v>0.4808146283756021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H3">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J3">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N3">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P3">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q3">
-        <v>13.70514747207802</v>
+        <v>134.060049622559</v>
       </c>
       <c r="R3">
-        <v>13.70514747207802</v>
+        <v>1206.540446603031</v>
       </c>
       <c r="S3">
-        <v>0.001213855328010129</v>
+        <v>0.002195100560331716</v>
       </c>
       <c r="T3">
-        <v>0.001213855328010129</v>
+        <v>0.002195100560331717</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.9838963238452</v>
+        <v>130.955829</v>
       </c>
       <c r="H4">
-        <v>20.9838963238452</v>
+        <v>392.867487</v>
       </c>
       <c r="I4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="J4">
-        <v>0.1712304577330646</v>
+        <v>0.5336535908353144</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N4">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O4">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P4">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q4">
-        <v>422.9766994919479</v>
+        <v>3092.941964482489</v>
       </c>
       <c r="R4">
-        <v>422.9766994919479</v>
+        <v>27836.4776803424</v>
       </c>
       <c r="S4">
-        <v>0.03746275049929045</v>
+        <v>0.05064386189938062</v>
       </c>
       <c r="T4">
-        <v>0.03746275049929045</v>
+        <v>0.05064386189938063</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H5">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J5">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N5">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O5">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P5">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q5">
-        <v>4699.626920571886</v>
+        <v>14887.98252450625</v>
       </c>
       <c r="R5">
-        <v>4699.626920571886</v>
+        <v>133991.8427205562</v>
       </c>
       <c r="S5">
-        <v>0.4162426700492161</v>
+        <v>0.2437759710947707</v>
       </c>
       <c r="T5">
-        <v>0.4162426700492161</v>
+        <v>0.2437759710947707</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H6">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J6">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N6">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O6">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P6">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q6">
-        <v>43.03660056028864</v>
+        <v>67.96926893044333</v>
       </c>
       <c r="R6">
-        <v>43.03660056028864</v>
+        <v>611.7234203739899</v>
       </c>
       <c r="S6">
-        <v>0.003811721617441978</v>
+        <v>0.001112929472535767</v>
       </c>
       <c r="T6">
-        <v>0.003811721617441978</v>
+        <v>0.001112929472535767</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>65.8931665002294</v>
+        <v>66.39541</v>
       </c>
       <c r="H7">
-        <v>65.8931665002294</v>
+        <v>199.18623</v>
       </c>
       <c r="I7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="J7">
-        <v>0.5376940910870729</v>
+        <v>0.2705656497465488</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N7">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O7">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P7">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q7">
-        <v>1328.222063967629</v>
+        <v>1568.140581493477</v>
       </c>
       <c r="R7">
-        <v>1328.222063967629</v>
+        <v>14113.26523344129</v>
       </c>
       <c r="S7">
-        <v>0.1176396994204149</v>
+        <v>0.02567674917924238</v>
       </c>
       <c r="T7">
-        <v>0.1176396994204149</v>
+        <v>0.02567674917924238</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H8">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J8">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.3219165230969</v>
+        <v>224.2321046666667</v>
       </c>
       <c r="N8">
-        <v>71.3219165230969</v>
+        <v>672.696314</v>
       </c>
       <c r="O8">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525987</v>
       </c>
       <c r="P8">
-        <v>0.7741254310749172</v>
+        <v>0.9009864013525988</v>
       </c>
       <c r="Q8">
-        <v>2544.097190126957</v>
+        <v>10772.9141802819</v>
       </c>
       <c r="R8">
-        <v>2544.097190126957</v>
+        <v>96956.22762253707</v>
       </c>
       <c r="S8">
-        <v>0.2253289091199371</v>
+        <v>0.1763958018822259</v>
       </c>
       <c r="T8">
-        <v>0.2253289091199371</v>
+        <v>0.1763958018822259</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H9">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J9">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.653126915066964</v>
+        <v>1.023704333333333</v>
       </c>
       <c r="N9">
-        <v>0.653126915066964</v>
+        <v>3.071113</v>
       </c>
       <c r="O9">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="P9">
-        <v>0.007089015260955726</v>
+        <v>0.004113343558497904</v>
       </c>
       <c r="Q9">
-        <v>23.29744390533941</v>
+        <v>49.18242615336833</v>
       </c>
       <c r="R9">
-        <v>23.29744390533941</v>
+        <v>442.641835380315</v>
       </c>
       <c r="S9">
-        <v>0.002063438315503619</v>
+        <v>0.0008053135256304205</v>
       </c>
       <c r="T9">
-        <v>0.002063438315503619</v>
+        <v>0.0008053135256304205</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.6706229185958</v>
+        <v>48.043585</v>
       </c>
       <c r="H10">
-        <v>35.6706229185958</v>
+        <v>144.130755</v>
       </c>
       <c r="I10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="J10">
-        <v>0.2910754511798626</v>
+        <v>0.1957807594181367</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.1572049806258</v>
+        <v>23.61820766666667</v>
       </c>
       <c r="N10">
-        <v>20.1572049806258</v>
+        <v>70.854623</v>
       </c>
       <c r="O10">
-        <v>0.2187855536641272</v>
+        <v>0.0949002550889034</v>
       </c>
       <c r="P10">
-        <v>0.2187855536641272</v>
+        <v>0.09490025508890343</v>
       </c>
       <c r="Q10">
-        <v>719.0200579567439</v>
+        <v>1134.703367581152</v>
       </c>
       <c r="R10">
-        <v>719.0200579567439</v>
+        <v>10212.33030823036</v>
       </c>
       <c r="S10">
-        <v>0.06368310374442185</v>
+        <v>0.0185796440102804</v>
       </c>
       <c r="T10">
-        <v>0.06368310374442185</v>
+        <v>0.0185796440102804</v>
       </c>
     </row>
   </sheetData>
